--- a/Task6/test/UniversityDLLTests/TestFiles/TestSessionResultSummaryMinimumSorted.xlsx
+++ b/Task6/test/UniversityDLLTests/TestFiles/TestSessionResultSummaryMinimumSorted.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Group</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Group2</t>
-  </si>
-  <si>
-    <t>Group3</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -199,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Group"/>
     <tableColumn id="2" name="Average grade"/>
@@ -507,8 +504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230aa7f0-4467-467d-852d-89603391d7da}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80225c8e-41bf-4f4c-84c3-1b0ba72613ef}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -547,27 +544,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27a7b520-8861-4bc0-83e6-04e11ffec863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b80ae63d-1dc5-4660-8102-3d1383aa5a8a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -589,7 +572,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
